--- a/Nochange/Registeration.xlsx
+++ b/Nochange/Registeration.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mani\git\NoChange_Repo\Nochange\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>lastName</t>
   </si>
@@ -90,14 +95,26 @@
     <t>Mani-12345</t>
   </si>
   <si>
-    <t>Test Comb No.</t>
+    <t>No Actions</t>
+  </si>
+  <si>
+    <t>9176040636</t>
+  </si>
+  <si>
+    <t>600122</t>
+  </si>
+  <si>
+    <t>Sundar</t>
+  </si>
+  <si>
+    <t>rsun2005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,14 +185,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -183,6 +200,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -229,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -261,9 +286,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,6 +321,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -470,287 +497,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" customWidth="1"/>
-    <col min="14" max="14" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="4" customFormat="1" ht="30">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="1">
-        <v>9176040636</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="1">
-        <v>600122</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="I3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="K3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="L3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
+      <c r="N3" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId1"/>
+    <hyperlink ref="K3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Nochange/Registeration.xlsx
+++ b/Nochange/Registeration.xlsx
@@ -501,7 +501,7 @@
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Nochange/Registeration.xlsx
+++ b/Nochange/Registeration.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mani\git\NoChange_Repo\Nochange\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="45" windowWidth="18060" windowHeight="8580"/>
   </bookViews>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="30">
   <si>
     <t>lastName</t>
   </si>
@@ -104,17 +99,20 @@
     <t>600122</t>
   </si>
   <si>
+    <t>rsun2005</t>
+  </si>
+  <si>
+    <t>sweetsundar8@gmail.com</t>
+  </si>
+  <si>
     <t>Sundar</t>
-  </si>
-  <si>
-    <t>rsun2005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,7 +181,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -193,6 +191,8 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -254,7 +254,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -286,10 +286,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +320,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -497,14 +495,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -521,7 +519,7 @@
     <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="30">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -565,7 +563,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
@@ -609,9 +607,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
+    <row r="3" spans="1:14">
+      <c r="A3" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>15</v>
@@ -620,7 +618,7 @@
         <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>17</v>
@@ -640,8 +638,8 @@
       <c r="J3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>22</v>
+      <c r="K3" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="L3" s="3" t="s">
         <v>23</v>
@@ -664,24 +662,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
